--- a/projects/fantasy-football/data/ff-post-analysis.xlsx
+++ b/projects/fantasy-football/data/ff-post-analysis.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben-tanen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben-tanen/Google Drive/Projects/bt-website/code/projects/fantasy-football/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="9660" yWindow="460" windowWidth="19140" windowHeight="16440" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'WR+RB+TE+QB, full'!$A$1:$N$274</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'WR+RB+TE+QB, subset'!$A$1:$M$210</definedName>
   </definedNames>
-  <calcPr calcId="150001" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3709" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="544">
   <si>
     <t>PLAYER</t>
   </si>
@@ -2783,6 +2783,9 @@
   <si>
     <t>@Buf</t>
   </si>
+  <si>
+    <t>DIFF</t>
+  </si>
 </sst>
 </file>
 
@@ -2790,7 +2793,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -2870,7 +2873,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2899,10 +2902,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2937,7 +2941,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4181,11 +4184,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1064834016"/>
-        <c:axId val="-1064831264"/>
+        <c:axId val="-136344336"/>
+        <c:axId val="-137311504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1064834016"/>
+        <c:axId val="-136344336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4228,7 +4231,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1064831264"/>
+        <c:crossAx val="-137311504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4236,7 +4239,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1064831264"/>
+        <c:axId val="-137311504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4287,7 +4290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1064834016"/>
+        <c:crossAx val="-136344336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4301,7 +4304,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10245,8 +10247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11655,10 +11657,10 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="19"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
         <v>41</v>
@@ -11851,7 +11853,7 @@
         <v>73</v>
       </c>
       <c r="D6" s="16" t="str">
-        <f>LEFT(C6,FIND(",",C6)-1)</f>
+        <f t="shared" ref="D6:D29" si="0">LEFT(C6,FIND(",",C6)-1)</f>
         <v>Corey Davis</v>
       </c>
       <c r="G6" s="17">
@@ -11893,7 +11895,7 @@
         <v>73</v>
       </c>
       <c r="D7" s="16" t="str">
-        <f>LEFT(C7,FIND(",",C7)-1)</f>
+        <f t="shared" si="0"/>
         <v>Corey Davis</v>
       </c>
       <c r="E7" s="16"/>
@@ -11937,7 +11939,7 @@
         <v>73</v>
       </c>
       <c r="D8" s="16" t="str">
-        <f>LEFT(C8,FIND(",",C8)-1)</f>
+        <f t="shared" si="0"/>
         <v>Corey Davis</v>
       </c>
       <c r="G8" s="16">
@@ -11979,7 +11981,7 @@
         <v>110</v>
       </c>
       <c r="D9" s="16" t="str">
-        <f>LEFT(C9,FIND(",",C9)-1)</f>
+        <f t="shared" si="0"/>
         <v>Dede Westbrook</v>
       </c>
       <c r="G9" s="16">
@@ -12021,7 +12023,7 @@
         <v>110</v>
       </c>
       <c r="D10" s="16" t="str">
-        <f>LEFT(C10,FIND(",",C10)-1)</f>
+        <f t="shared" si="0"/>
         <v>Dede Westbrook</v>
       </c>
       <c r="G10" s="16">
@@ -12063,7 +12065,7 @@
         <v>110</v>
       </c>
       <c r="D11" s="16" t="str">
-        <f>LEFT(C11,FIND(",",C11)-1)</f>
+        <f t="shared" si="0"/>
         <v>Dede Westbrook</v>
       </c>
       <c r="G11" s="16">
@@ -12105,7 +12107,7 @@
         <v>106</v>
       </c>
       <c r="D12" s="16" t="str">
-        <f>LEFT(C12,FIND(",",C12)-1)</f>
+        <f t="shared" si="0"/>
         <v>Dontrelle Inman</v>
       </c>
       <c r="G12" s="17">
@@ -12147,7 +12149,7 @@
         <v>106</v>
       </c>
       <c r="D13" s="16" t="str">
-        <f>LEFT(C13,FIND(",",C13)-1)</f>
+        <f t="shared" si="0"/>
         <v>Dontrelle Inman</v>
       </c>
       <c r="G13" s="16">
@@ -12189,7 +12191,7 @@
         <v>106</v>
       </c>
       <c r="D14" s="16" t="str">
-        <f>LEFT(C14,FIND(",",C14)-1)</f>
+        <f t="shared" si="0"/>
         <v>Dontrelle Inman</v>
       </c>
       <c r="G14" s="16">
@@ -12231,7 +12233,7 @@
         <v>101</v>
       </c>
       <c r="D15" s="16" t="str">
-        <f>LEFT(C15,FIND(",",C15)-1)</f>
+        <f t="shared" si="0"/>
         <v>Eric Decker</v>
       </c>
       <c r="G15" s="16">
@@ -12273,7 +12275,7 @@
         <v>534</v>
       </c>
       <c r="D16" s="16" t="str">
-        <f>LEFT(C16,FIND(",",C16)-1)</f>
+        <f t="shared" si="0"/>
         <v>Jameis Winston</v>
       </c>
       <c r="G16" s="16">
@@ -12315,7 +12317,7 @@
         <v>534</v>
       </c>
       <c r="D17" s="16" t="str">
-        <f>LEFT(C17,FIND(",",C17)-1)</f>
+        <f t="shared" si="0"/>
         <v>Jameis Winston</v>
       </c>
       <c r="G17" s="16">
@@ -12357,7 +12359,7 @@
         <v>69</v>
       </c>
       <c r="D18" s="16" t="str">
-        <f>LEFT(C18,FIND(",",C18)-1)</f>
+        <f t="shared" si="0"/>
         <v>Jamison Crowder</v>
       </c>
       <c r="G18" s="16">
@@ -12399,7 +12401,7 @@
         <v>69</v>
       </c>
       <c r="D19" s="16" t="str">
-        <f>LEFT(C19,FIND(",",C19)-1)</f>
+        <f t="shared" si="0"/>
         <v>Jamison Crowder</v>
       </c>
       <c r="G19" s="16">
@@ -12441,7 +12443,7 @@
         <v>69</v>
       </c>
       <c r="D20" s="16" t="str">
-        <f>LEFT(C20,FIND(",",C20)-1)</f>
+        <f t="shared" si="0"/>
         <v>Jamison Crowder</v>
       </c>
       <c r="G20" s="16">
@@ -12483,7 +12485,7 @@
         <v>95</v>
       </c>
       <c r="D21" s="16" t="str">
-        <f>LEFT(C21,FIND(",",C21)-1)</f>
+        <f t="shared" si="0"/>
         <v>Jay Ajayi</v>
       </c>
       <c r="G21" s="16">
@@ -12525,7 +12527,7 @@
         <v>95</v>
       </c>
       <c r="D22" s="16" t="str">
-        <f>LEFT(C22,FIND(",",C22)-1)</f>
+        <f t="shared" si="0"/>
         <v>Jay Ajayi</v>
       </c>
       <c r="G22" s="16">
@@ -12567,7 +12569,7 @@
         <v>95</v>
       </c>
       <c r="D23" s="16" t="str">
-        <f>LEFT(C23,FIND(",",C23)-1)</f>
+        <f t="shared" si="0"/>
         <v>Jay Ajayi</v>
       </c>
       <c r="G23" s="16">
@@ -12609,7 +12611,7 @@
         <v>82</v>
       </c>
       <c r="D24" s="16" t="str">
-        <f>LEFT(C24,FIND(",",C24)-1)</f>
+        <f t="shared" si="0"/>
         <v>Jimmy Graham</v>
       </c>
       <c r="G24" s="16">
@@ -12651,7 +12653,7 @@
         <v>82</v>
       </c>
       <c r="D25" s="16" t="str">
-        <f>LEFT(C25,FIND(",",C25)-1)</f>
+        <f t="shared" si="0"/>
         <v>Jimmy Graham</v>
       </c>
       <c r="G25" s="16">
@@ -12693,7 +12695,7 @@
         <v>82</v>
       </c>
       <c r="D26" s="16" t="str">
-        <f>LEFT(C26,FIND(",",C26)-1)</f>
+        <f t="shared" si="0"/>
         <v>Jimmy Graham</v>
       </c>
       <c r="G26" s="16">
@@ -12735,7 +12737,7 @@
         <v>63</v>
       </c>
       <c r="D27" s="16" t="str">
-        <f>LEFT(C27,FIND(",",C27)-1)</f>
+        <f t="shared" si="0"/>
         <v>LeSean McCoy</v>
       </c>
       <c r="G27" s="16">
@@ -12777,7 +12779,7 @@
         <v>63</v>
       </c>
       <c r="D28" s="16" t="str">
-        <f>LEFT(C28,FIND(",",C28)-1)</f>
+        <f t="shared" si="0"/>
         <v>LeSean McCoy</v>
       </c>
       <c r="G28" s="16">
@@ -12819,7 +12821,7 @@
         <v>63</v>
       </c>
       <c r="D29" s="16" t="str">
-        <f>LEFT(C29,FIND(",",C29)-1)</f>
+        <f t="shared" si="0"/>
         <v>LeSean McCoy</v>
       </c>
       <c r="G29" s="16">
@@ -12943,7 +12945,7 @@
         <v>90</v>
       </c>
       <c r="D32" s="16" t="str">
-        <f>LEFT(C32,FIND(",",C32)-1)</f>
+        <f t="shared" ref="D32:D37" si="1">LEFT(C32,FIND(",",C32)-1)</f>
         <v>Matt Prater</v>
       </c>
       <c r="G32" s="17">
@@ -12985,7 +12987,7 @@
         <v>90</v>
       </c>
       <c r="D33" s="16" t="str">
-        <f>LEFT(C33,FIND(",",C33)-1)</f>
+        <f t="shared" si="1"/>
         <v>Matt Prater</v>
       </c>
       <c r="E33" s="16"/>
@@ -13029,7 +13031,7 @@
         <v>90</v>
       </c>
       <c r="D34" s="16" t="str">
-        <f>LEFT(C34,FIND(",",C34)-1)</f>
+        <f t="shared" si="1"/>
         <v>Matt Prater</v>
       </c>
       <c r="G34" s="16">
@@ -13071,7 +13073,7 @@
         <v>532</v>
       </c>
       <c r="D35" s="16" t="str">
-        <f>LEFT(C35,FIND(",",C35)-1)</f>
+        <f t="shared" si="1"/>
         <v>Matthew Stafford</v>
       </c>
       <c r="G35" s="16">
@@ -13113,7 +13115,7 @@
         <v>532</v>
       </c>
       <c r="D36" s="16" t="str">
-        <f>LEFT(C36,FIND(",",C36)-1)</f>
+        <f t="shared" si="1"/>
         <v>Matthew Stafford</v>
       </c>
       <c r="E36" s="16"/>
@@ -13157,7 +13159,7 @@
         <v>532</v>
       </c>
       <c r="D37" s="16" t="str">
-        <f>LEFT(C37,FIND(",",C37)-1)</f>
+        <f t="shared" si="1"/>
         <v>Matthew Stafford</v>
       </c>
       <c r="G37" s="16">
@@ -13324,7 +13326,7 @@
         <v>65</v>
       </c>
       <c r="D41" s="16" t="str">
-        <f>LEFT(C41,FIND(",",C41)-1)</f>
+        <f t="shared" ref="D41:D50" si="2">LEFT(C41,FIND(",",C41)-1)</f>
         <v>Rod Smith</v>
       </c>
       <c r="G41" s="17">
@@ -13366,7 +13368,7 @@
         <v>65</v>
       </c>
       <c r="D42" s="16" t="str">
-        <f>LEFT(C42,FIND(",",C42)-1)</f>
+        <f t="shared" si="2"/>
         <v>Rod Smith</v>
       </c>
       <c r="G42" s="16">
@@ -13408,7 +13410,7 @@
         <v>65</v>
       </c>
       <c r="D43" s="16" t="str">
-        <f>LEFT(C43,FIND(",",C43)-1)</f>
+        <f t="shared" si="2"/>
         <v>Rod Smith</v>
       </c>
       <c r="G43" s="16">
@@ -13450,7 +13452,7 @@
         <v>97</v>
       </c>
       <c r="D44" s="16" t="str">
-        <f>LEFT(C44,FIND(",",C44)-1)</f>
+        <f t="shared" si="2"/>
         <v>T.Y. Hilton</v>
       </c>
       <c r="G44" s="17">
@@ -13492,7 +13494,7 @@
         <v>97</v>
       </c>
       <c r="D45" s="16" t="str">
-        <f>LEFT(C45,FIND(",",C45)-1)</f>
+        <f t="shared" si="2"/>
         <v>T.Y. Hilton</v>
       </c>
       <c r="G45" s="16">
@@ -13534,7 +13536,7 @@
         <v>97</v>
       </c>
       <c r="D46" s="16" t="str">
-        <f>LEFT(C46,FIND(",",C46)-1)</f>
+        <f t="shared" si="2"/>
         <v>T.Y. Hilton</v>
       </c>
       <c r="G46" s="16">
@@ -13576,7 +13578,7 @@
         <v>537</v>
       </c>
       <c r="D47" s="16" t="str">
-        <f>LEFT(C47,FIND(",",C47)-1)</f>
+        <f t="shared" si="2"/>
         <v>Tyrod Taylor</v>
       </c>
       <c r="G47" s="17">
@@ -13618,7 +13620,7 @@
         <v>533</v>
       </c>
       <c r="D48" s="16" t="str">
-        <f>LEFT(C48,FIND(",",C48)-1)</f>
+        <f t="shared" si="2"/>
         <v>Zach Ertz</v>
       </c>
       <c r="G48" s="16">
@@ -13660,7 +13662,7 @@
         <v>533</v>
       </c>
       <c r="D49" s="16" t="str">
-        <f>LEFT(C49,FIND(",",C49)-1)</f>
+        <f t="shared" si="2"/>
         <v>Zach Ertz</v>
       </c>
       <c r="G49" s="16">
@@ -13702,7 +13704,7 @@
         <v>533</v>
       </c>
       <c r="D50" s="16" t="str">
-        <f>LEFT(C50,FIND(",",C50)-1)</f>
+        <f t="shared" si="2"/>
         <v>Zach Ertz</v>
       </c>
       <c r="G50" s="16">
@@ -23644,7 +23646,7 @@
         <v>443</v>
       </c>
       <c r="E3" s="6" t="str">
-        <f t="shared" ref="E2:E48" si="1">SUBSTITUTE(B3,F3&amp;", ","")</f>
+        <f t="shared" ref="E3:E48" si="1">SUBSTITUTE(B3,F3&amp;", ","")</f>
         <v>Sea QB</v>
       </c>
       <c r="F3" s="6" t="str">
@@ -27971,7 +27973,7 @@
         <v>513</v>
       </c>
       <c r="E82" s="6" t="str">
-        <f t="shared" ref="E82:E113" si="9">SUBSTITUTE(B82,F82&amp;", ","")</f>
+        <f t="shared" ref="E82:E101" si="9">SUBSTITUTE(B82,F82&amp;", ","")</f>
         <v>Oak WR</v>
       </c>
       <c r="F82" s="6" t="str">
@@ -29775,7 +29777,7 @@
         <f>IFERROR(AVERAGE(D2:S2),"")</f>
         <v>17.226666666666667</v>
       </c>
-      <c r="V2" s="21">
+      <c r="V2" s="20">
         <f>IFERROR(VLOOKUP($C2,Summary!$A$26:$R$30,MATCH("Average",Summary!$A$26:$R$26,0),FALSE),"")</f>
         <v>5.8243749999999999</v>
       </c>
@@ -29864,7 +29866,7 @@
         <f t="shared" ref="U3:U17" si="5">IFERROR(AVERAGE(D3:S3),"")</f>
         <v>8.1285714285714281</v>
       </c>
-      <c r="V3" s="21">
+      <c r="V3" s="20">
         <f>IFERROR(VLOOKUP($C3,Summary!$A$26:$R$30,MATCH("Average",Summary!$A$26:$R$26,0),FALSE),"")</f>
         <v>5.8243749999999999</v>
       </c>
@@ -29956,7 +29958,7 @@
         <f t="shared" si="5"/>
         <v>9.4066666666666663</v>
       </c>
-      <c r="V4" s="21">
+      <c r="V4" s="20">
         <f>IFERROR(VLOOKUP($C4,Summary!$A$26:$R$30,MATCH("Average",Summary!$A$26:$R$26,0),FALSE),"")</f>
         <v>6.0556249999999991</v>
       </c>
@@ -30024,7 +30026,7 @@
         <f t="shared" si="5"/>
         <v>14.957142857142856</v>
       </c>
-      <c r="V5" s="21">
+      <c r="V5" s="20">
         <f>IFERROR(VLOOKUP($C5,Summary!$A$26:$R$30,MATCH("Average",Summary!$A$26:$R$26,0),FALSE),"")</f>
         <v>14.540000000000001</v>
       </c>
@@ -30116,7 +30118,7 @@
         <f t="shared" si="5"/>
         <v>9.4066666666666681</v>
       </c>
-      <c r="V6" s="21">
+      <c r="V6" s="20">
         <f>IFERROR(VLOOKUP($C6,Summary!$A$26:$R$30,MATCH("Average",Summary!$A$26:$R$26,0),FALSE),"")</f>
         <v>6.0556249999999991</v>
       </c>
@@ -30208,7 +30210,7 @@
         <f t="shared" si="5"/>
         <v>9.9533333333333349</v>
       </c>
-      <c r="V7" s="21">
+      <c r="V7" s="20">
         <f>IFERROR(VLOOKUP($C7,Summary!$A$26:$R$30,MATCH("Average",Summary!$A$26:$R$26,0),FALSE),"")</f>
         <v>3.5831250000000003</v>
       </c>
@@ -30294,7 +30296,7 @@
         <f t="shared" si="5"/>
         <v>3.2538461538461538</v>
       </c>
-      <c r="V8" s="21">
+      <c r="V8" s="20">
         <f>IFERROR(VLOOKUP($C8,Summary!$A$26:$R$30,MATCH("Average",Summary!$A$26:$R$26,0),FALSE),"")</f>
         <v>6.0556249999999991</v>
       </c>
@@ -30359,7 +30361,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V9" s="21">
+      <c r="V9" s="20">
         <f>IFERROR(VLOOKUP($C9,Summary!$A$26:$R$30,MATCH("Average",Summary!$A$26:$R$26,0),FALSE),"")</f>
         <v>6.0556249999999991</v>
       </c>
@@ -30451,7 +30453,7 @@
         <f t="shared" si="5"/>
         <v>12.046666666666665</v>
       </c>
-      <c r="V10" s="21">
+      <c r="V10" s="20">
         <f>IFERROR(VLOOKUP($C10,Summary!$A$26:$R$30,MATCH("Average",Summary!$A$26:$R$26,0),FALSE),"")</f>
         <v>3.5831250000000003</v>
       </c>
@@ -30507,7 +30509,7 @@
         <f t="shared" si="5"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="V11" s="21">
+      <c r="V11" s="20">
         <f>IFERROR(VLOOKUP($C11,Summary!$A$26:$R$30,MATCH("Average",Summary!$A$26:$R$26,0),FALSE),"")</f>
         <v>5.8243749999999999</v>
       </c>
@@ -30587,7 +30589,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V12" s="21">
+      <c r="V12" s="20">
         <f>IFERROR(VLOOKUP($C12,Summary!$A$26:$R$30,MATCH("Average",Summary!$A$26:$R$26,0),FALSE),"")</f>
         <v>3.5831250000000003</v>
       </c>
@@ -30679,7 +30681,7 @@
         <f t="shared" si="5"/>
         <v>6.4333333333333336</v>
       </c>
-      <c r="V13" s="21">
+      <c r="V13" s="20">
         <f>IFERROR(VLOOKUP($C13,Summary!$A$26:$R$30,MATCH("Average",Summary!$A$26:$R$26,0),FALSE),"")</f>
         <v>14.540000000000001</v>
       </c>
@@ -30771,7 +30773,7 @@
         <f t="shared" si="5"/>
         <v>9.1333333333333329</v>
       </c>
-      <c r="V14" s="21" t="str">
+      <c r="V14" s="20" t="str">
         <f>IFERROR(VLOOKUP($C14,Summary!$A$26:$R$30,MATCH("Average",Summary!$A$26:$R$26,0),FALSE),"")</f>
         <v/>
       </c>
@@ -30827,7 +30829,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V15" s="21">
+      <c r="V15" s="20">
         <f>IFERROR(VLOOKUP($C15,Summary!$A$26:$R$30,MATCH("Average",Summary!$A$26:$R$26,0),FALSE),"")</f>
         <v>5.8243749999999999</v>
       </c>
@@ -30874,7 +30876,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="V16" s="21" t="str">
+      <c r="V16" s="20" t="str">
         <f>IFERROR(VLOOKUP($C16,Summary!$A$26:$R$30,MATCH("Average",Summary!$A$26:$R$26,0),FALSE),"")</f>
         <v/>
       </c>
@@ -30930,7 +30932,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V17" s="21">
+      <c r="V17" s="20">
         <f>IFERROR(VLOOKUP($C17,Summary!$A$26:$R$30,MATCH("Average",Summary!$A$26:$R$26,0),FALSE),"")</f>
         <v>6.0556249999999991</v>
       </c>
@@ -31380,7 +31382,7 @@
       <c r="I8" s="17">
         <v>21.9</v>
       </c>
-      <c r="J8" s="20"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="17">
         <v>290</v>
       </c>
@@ -39846,7 +39848,7 @@
       <c r="M162" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="P162" s="20"/>
+      <c r="P162" s="19"/>
       <c r="S162" s="16"/>
       <c r="T162" s="16"/>
       <c r="U162" s="16"/>
@@ -39953,7 +39955,7 @@
       <c r="M164" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="P164" s="20"/>
+      <c r="P164" s="19"/>
       <c r="S164" s="16"/>
       <c r="T164" s="16"/>
       <c r="U164" s="16"/>
@@ -46780,8 +46782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC274"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G176" sqref="G176"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -46829,6 +46831,9 @@
       <c r="N1" t="s">
         <v>9</v>
       </c>
+      <c r="O1" t="s">
+        <v>543</v>
+      </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -46885,6 +46890,10 @@
       <c r="N2">
         <v>16.5</v>
       </c>
+      <c r="O2">
+        <f>IFERROR(N2-H2,0)</f>
+        <v>-2.6999999999999993</v>
+      </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -46941,6 +46950,10 @@
       <c r="N3">
         <v>18.5</v>
       </c>
+      <c r="O3" s="18">
+        <f t="shared" ref="O3:O66" si="2">IFERROR(N3-H3,0)</f>
+        <v>-4</v>
+      </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -46997,6 +47010,10 @@
       <c r="N4">
         <v>24.8</v>
       </c>
+      <c r="O4" s="18">
+        <f t="shared" si="2"/>
+        <v>5.6999999999999993</v>
+      </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -47053,6 +47070,10 @@
       <c r="N5">
         <v>23.1</v>
       </c>
+      <c r="O5" s="18">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
@@ -47109,6 +47130,10 @@
       <c r="N6">
         <v>24</v>
       </c>
+      <c r="O6" s="18">
+        <f t="shared" si="2"/>
+        <v>1.8999999999999986</v>
+      </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -47165,6 +47190,10 @@
       <c r="N7">
         <v>0.7</v>
       </c>
+      <c r="O7" s="18">
+        <f t="shared" si="2"/>
+        <v>-18.100000000000001</v>
+      </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -47224,6 +47253,10 @@
       <c r="N8">
         <v>8.1999999999999993</v>
       </c>
+      <c r="O8" s="18">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -47283,6 +47316,10 @@
       <c r="N9">
         <v>4.0999999999999996</v>
       </c>
+      <c r="O9" s="18">
+        <f t="shared" si="2"/>
+        <v>-5.7000000000000011</v>
+      </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -47342,6 +47379,10 @@
       <c r="N10">
         <v>6.7</v>
       </c>
+      <c r="O10" s="18">
+        <f t="shared" si="2"/>
+        <v>-2.2000000000000002</v>
+      </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -47401,6 +47442,10 @@
       <c r="N11">
         <v>15.1</v>
       </c>
+      <c r="O11" s="18">
+        <f t="shared" si="2"/>
+        <v>4.9000000000000004</v>
+      </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -47460,6 +47505,10 @@
       <c r="N12" t="s">
         <v>313</v>
       </c>
+      <c r="O12" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -47519,6 +47568,10 @@
       <c r="N13">
         <v>6.1</v>
       </c>
+      <c r="O13" s="18">
+        <f t="shared" si="2"/>
+        <v>-2.4000000000000004</v>
+      </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -47578,6 +47631,10 @@
       <c r="N14">
         <v>14</v>
       </c>
+      <c r="O14" s="18">
+        <f t="shared" si="2"/>
+        <v>5.6</v>
+      </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
@@ -47637,6 +47694,10 @@
       <c r="N15">
         <v>0</v>
       </c>
+      <c r="O15" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -47696,6 +47757,10 @@
       <c r="N16">
         <v>0</v>
       </c>
+      <c r="O16" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -47755,6 +47820,10 @@
       <c r="N17">
         <v>19.399999999999999</v>
       </c>
+      <c r="O17" s="18">
+        <f t="shared" si="2"/>
+        <v>8.4999999999999982</v>
+      </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -47814,6 +47883,10 @@
       <c r="N18">
         <v>15.3</v>
       </c>
+      <c r="O18" s="18">
+        <f t="shared" si="2"/>
+        <v>5.6000000000000014</v>
+      </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -47873,6 +47946,10 @@
       <c r="N19">
         <v>0</v>
       </c>
+      <c r="O19" s="18">
+        <f t="shared" si="2"/>
+        <v>-11.6</v>
+      </c>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -47932,6 +48009,10 @@
       <c r="N20">
         <v>0</v>
       </c>
+      <c r="O20" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -47991,6 +48072,10 @@
       <c r="N21" t="s">
         <v>313</v>
       </c>
+      <c r="O21" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -48050,6 +48135,10 @@
       <c r="N22">
         <v>3.4</v>
       </c>
+      <c r="O22" s="18">
+        <f t="shared" si="2"/>
+        <v>-5.7999999999999989</v>
+      </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -48109,6 +48198,10 @@
       <c r="N23">
         <v>12</v>
       </c>
+      <c r="O23" s="18">
+        <f t="shared" si="2"/>
+        <v>5.0999999999999996</v>
+      </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -48168,6 +48261,10 @@
       <c r="N24">
         <v>0</v>
       </c>
+      <c r="O24" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
@@ -48227,6 +48324,10 @@
       <c r="N25">
         <v>0</v>
       </c>
+      <c r="O25" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
@@ -48286,6 +48387,10 @@
       <c r="N26">
         <v>6.2</v>
       </c>
+      <c r="O26" s="18">
+        <f t="shared" si="2"/>
+        <v>-3.7</v>
+      </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
@@ -48345,6 +48450,10 @@
       <c r="N27">
         <v>7.3</v>
       </c>
+      <c r="O27" s="18">
+        <f t="shared" si="2"/>
+        <v>-2.8</v>
+      </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
@@ -48404,6 +48513,10 @@
       <c r="N28">
         <v>1.4</v>
       </c>
+      <c r="O28" s="18">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
@@ -48463,6 +48576,10 @@
       <c r="N29">
         <v>4.8</v>
       </c>
+      <c r="O29" s="18">
+        <f t="shared" si="2"/>
+        <v>-4.0000000000000009</v>
+      </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
@@ -48522,6 +48639,10 @@
       <c r="N30">
         <v>6.8</v>
       </c>
+      <c r="O30" s="18">
+        <f t="shared" si="2"/>
+        <v>-2.2999999999999998</v>
+      </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
@@ -48581,6 +48702,10 @@
       <c r="N31">
         <v>5.7</v>
       </c>
+      <c r="O31" s="18">
+        <f t="shared" si="2"/>
+        <v>-3.2</v>
+      </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
@@ -48640,6 +48765,10 @@
       <c r="N32">
         <v>7.9</v>
       </c>
+      <c r="O32" s="18">
+        <f t="shared" si="2"/>
+        <v>-2.9000000000000004</v>
+      </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -48699,6 +48828,10 @@
       <c r="N33">
         <v>3.2</v>
       </c>
+      <c r="O33" s="18">
+        <f t="shared" si="2"/>
+        <v>-5.9999999999999991</v>
+      </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
@@ -48758,6 +48891,10 @@
       <c r="N34">
         <v>9.5</v>
       </c>
+      <c r="O34" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.90000000000000036</v>
+      </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
@@ -48817,6 +48954,10 @@
       <c r="N35">
         <v>7.8</v>
       </c>
+      <c r="O35" s="18">
+        <f t="shared" si="2"/>
+        <v>-1.7999999999999998</v>
+      </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
@@ -48876,6 +49017,10 @@
       <c r="N36">
         <v>1.1000000000000001</v>
       </c>
+      <c r="O36" s="18">
+        <f t="shared" si="2"/>
+        <v>-9.4</v>
+      </c>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
@@ -48935,6 +49080,10 @@
       <c r="N37">
         <v>13.8</v>
       </c>
+      <c r="O37" s="18">
+        <f t="shared" si="2"/>
+        <v>5.2000000000000011</v>
+      </c>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
@@ -48994,6 +49143,10 @@
       <c r="N38">
         <v>10.4</v>
       </c>
+      <c r="O38" s="18">
+        <f t="shared" si="2"/>
+        <v>2.9000000000000004</v>
+      </c>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
@@ -49053,6 +49206,10 @@
       <c r="N39">
         <v>10.1</v>
       </c>
+      <c r="O39" s="18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
@@ -49112,6 +49269,10 @@
       <c r="N40">
         <v>4</v>
       </c>
+      <c r="O40" s="18">
+        <f t="shared" si="2"/>
+        <v>-6.6</v>
+      </c>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
@@ -49171,6 +49332,10 @@
       <c r="N41">
         <v>6.2</v>
       </c>
+      <c r="O41" s="18">
+        <f t="shared" si="2"/>
+        <v>-5.8999999999999995</v>
+      </c>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
@@ -49230,6 +49395,10 @@
       <c r="N42">
         <v>8.9</v>
       </c>
+      <c r="O42" s="18">
+        <f t="shared" si="2"/>
+        <v>-3.5</v>
+      </c>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
@@ -49289,6 +49458,10 @@
       <c r="N43">
         <v>3.3</v>
       </c>
+      <c r="O43" s="18">
+        <f t="shared" si="2"/>
+        <v>-7.1000000000000005</v>
+      </c>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
@@ -49348,6 +49521,10 @@
       <c r="N44">
         <v>7.4</v>
       </c>
+      <c r="O44" s="18">
+        <f t="shared" si="2"/>
+        <v>-1.4000000000000004</v>
+      </c>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
@@ -49407,6 +49584,10 @@
       <c r="N45">
         <v>15.8</v>
       </c>
+      <c r="O45" s="18">
+        <f t="shared" si="2"/>
+        <v>5.2000000000000011</v>
+      </c>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
@@ -49466,6 +49647,10 @@
       <c r="N46">
         <v>0</v>
       </c>
+      <c r="O46" s="18">
+        <f t="shared" si="2"/>
+        <v>-9.4</v>
+      </c>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
@@ -49525,6 +49710,10 @@
       <c r="N47" t="s">
         <v>313</v>
       </c>
+      <c r="O47" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
@@ -49584,6 +49773,10 @@
       <c r="N48">
         <v>11.1</v>
       </c>
+      <c r="O48" s="18">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
@@ -49643,6 +49836,10 @@
       <c r="N49">
         <v>3.9</v>
       </c>
+      <c r="O49" s="18">
+        <f t="shared" si="2"/>
+        <v>-4.5</v>
+      </c>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
@@ -49702,6 +49899,10 @@
       <c r="N50">
         <v>6.7</v>
       </c>
+      <c r="O50" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.70000000000000018</v>
+      </c>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
@@ -49761,6 +49962,10 @@
       <c r="N51">
         <v>5.3</v>
       </c>
+      <c r="O51" s="18">
+        <f t="shared" si="2"/>
+        <v>-5.7</v>
+      </c>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
@@ -49820,6 +50025,10 @@
       <c r="N52">
         <v>5.7</v>
       </c>
+      <c r="O52" s="18">
+        <f t="shared" si="2"/>
+        <v>-3.3</v>
+      </c>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
@@ -49879,6 +50088,10 @@
       <c r="N53">
         <v>2.4</v>
       </c>
+      <c r="O53" s="18">
+        <f t="shared" si="2"/>
+        <v>-10.299999999999999</v>
+      </c>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
@@ -49938,6 +50151,10 @@
       <c r="N54">
         <v>8.6999999999999993</v>
       </c>
+      <c r="O54" s="18">
+        <f t="shared" si="2"/>
+        <v>-5.1000000000000014</v>
+      </c>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
@@ -49997,6 +50214,10 @@
       <c r="N55">
         <v>9.1999999999999993</v>
       </c>
+      <c r="O55" s="18">
+        <f t="shared" si="2"/>
+        <v>-3.1000000000000014</v>
+      </c>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
@@ -50056,6 +50277,10 @@
       <c r="N56">
         <v>0.3</v>
       </c>
+      <c r="O56" s="18">
+        <f t="shared" si="2"/>
+        <v>-12.2</v>
+      </c>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
@@ -50115,6 +50340,10 @@
       <c r="N57" t="s">
         <v>313</v>
       </c>
+      <c r="O57" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
@@ -50174,6 +50403,10 @@
       <c r="N58">
         <v>5.6</v>
       </c>
+      <c r="O58" s="18">
+        <f t="shared" si="2"/>
+        <v>-3.9000000000000004</v>
+      </c>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
@@ -50233,6 +50466,10 @@
       <c r="N59">
         <v>5.0999999999999996</v>
       </c>
+      <c r="O59" s="18">
+        <f t="shared" si="2"/>
+        <v>-4.4000000000000004</v>
+      </c>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
@@ -50292,6 +50529,10 @@
       <c r="N60">
         <v>22.5</v>
       </c>
+      <c r="O60" s="18">
+        <f t="shared" si="2"/>
+        <v>13.3</v>
+      </c>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
@@ -50351,6 +50592,10 @@
       <c r="N61">
         <v>0</v>
       </c>
+      <c r="O61" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
@@ -50410,6 +50655,10 @@
       <c r="N62">
         <v>12.1</v>
       </c>
+      <c r="O62" s="18">
+        <f t="shared" si="2"/>
+        <v>1.2999999999999989</v>
+      </c>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
@@ -50469,6 +50718,10 @@
       <c r="N63">
         <v>14.6</v>
       </c>
+      <c r="O63" s="18">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
@@ -50528,6 +50781,10 @@
       <c r="N64">
         <v>27.1</v>
       </c>
+      <c r="O64" s="18">
+        <f t="shared" si="2"/>
+        <v>14.700000000000001</v>
+      </c>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
@@ -50587,6 +50844,10 @@
       <c r="N65">
         <v>9.6999999999999993</v>
       </c>
+      <c r="O65" s="18">
+        <f t="shared" si="2"/>
+        <v>-3.8000000000000007</v>
+      </c>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
@@ -50609,11 +50870,11 @@
         <v>1</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" ref="D66:D122" si="2">IF(LEFT($J66,1)="@","@","")</f>
+        <f t="shared" ref="D66:D122" si="3">IF(LEFT($J66,1)="@","@","")</f>
         <v/>
       </c>
       <c r="E66" t="str">
-        <f t="shared" ref="E66:E122" si="3">SUBSTITUTE($J66,"@","")</f>
+        <f t="shared" ref="E66:E122" si="4">SUBSTITUTE($J66,"@","")</f>
         <v>BYE</v>
       </c>
       <c r="F66">
@@ -50645,6 +50906,10 @@
       </c>
       <c r="N66" t="s">
         <v>313</v>
+      </c>
+      <c r="O66" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
@@ -50668,11 +50933,11 @@
         <v>2</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>LAC</v>
       </c>
       <c r="F67">
@@ -50704,6 +50969,10 @@
       </c>
       <c r="N67">
         <v>14.6</v>
+      </c>
+      <c r="O67" s="18">
+        <f t="shared" ref="O67:O130" si="5">IFERROR(N67-H67,0)</f>
+        <v>1.5</v>
       </c>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
@@ -50727,11 +50996,11 @@
         <v>3</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NYJ</v>
       </c>
       <c r="F68">
@@ -50763,6 +51032,10 @@
       </c>
       <c r="N68">
         <v>4.5</v>
+      </c>
+      <c r="O68" s="18">
+        <f t="shared" si="5"/>
+        <v>-13</v>
       </c>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
@@ -50786,11 +51059,11 @@
         <v>4</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NO</v>
       </c>
       <c r="F69">
@@ -50822,6 +51095,10 @@
       </c>
       <c r="N69">
         <v>6.4</v>
+      </c>
+      <c r="O69" s="18">
+        <f t="shared" si="5"/>
+        <v>-8.9</v>
       </c>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
@@ -50845,11 +51122,11 @@
         <v>5</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Ten</v>
       </c>
       <c r="F70">
@@ -50881,6 +51158,10 @@
       </c>
       <c r="N70">
         <v>7.9</v>
+      </c>
+      <c r="O70" s="18">
+        <f t="shared" si="5"/>
+        <v>-5.7999999999999989</v>
       </c>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
@@ -50904,11 +51185,11 @@
         <v>6</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Atl</v>
       </c>
       <c r="F71">
@@ -50940,6 +51221,10 @@
       </c>
       <c r="N71">
         <v>13</v>
+      </c>
+      <c r="O71" s="18">
+        <f t="shared" si="5"/>
+        <v>0.19999999999999929</v>
       </c>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
@@ -50963,11 +51248,11 @@
         <v>7</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NYJ</v>
       </c>
       <c r="F72">
@@ -50999,6 +51284,10 @@
       </c>
       <c r="N72">
         <v>10.7</v>
+      </c>
+      <c r="O72" s="18">
+        <f t="shared" si="5"/>
+        <v>-4.5</v>
       </c>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
@@ -51022,11 +51311,11 @@
         <v>8</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Bal</v>
       </c>
       <c r="F73">
@@ -51058,6 +51347,10 @@
       </c>
       <c r="N73">
         <v>8.1</v>
+      </c>
+      <c r="O73" s="18">
+        <f t="shared" si="5"/>
+        <v>-6.9</v>
       </c>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
@@ -51081,11 +51374,11 @@
         <v>9</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Phi</v>
       </c>
       <c r="F74">
@@ -51117,6 +51410,10 @@
       </c>
       <c r="N74">
         <v>13.7</v>
+      </c>
+      <c r="O74" s="18">
+        <f t="shared" si="5"/>
+        <v>9.3999999999999986</v>
       </c>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
@@ -51140,11 +51437,11 @@
         <v>10</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BYE</v>
       </c>
       <c r="F75">
@@ -51176,6 +51473,10 @@
       </c>
       <c r="N75" t="s">
         <v>313</v>
+      </c>
+      <c r="O75" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
@@ -51199,11 +51500,11 @@
         <v>11</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dal</v>
       </c>
       <c r="F76">
@@ -51235,6 +51536,10 @@
       </c>
       <c r="N76">
         <v>11.1</v>
+      </c>
+      <c r="O76" s="18">
+        <f t="shared" si="5"/>
+        <v>-0.90000000000000036</v>
       </c>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
@@ -51258,11 +51563,11 @@
         <v>12</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Chi</v>
       </c>
       <c r="F77">
@@ -51294,6 +51599,10 @@
       </c>
       <c r="N77">
         <v>4.3</v>
+      </c>
+      <c r="O77" s="18">
+        <f t="shared" si="5"/>
+        <v>-5.1000000000000005</v>
       </c>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
@@ -51317,11 +51626,11 @@
         <v>13</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Sea</v>
       </c>
       <c r="F78">
@@ -51353,6 +51662,10 @@
       </c>
       <c r="N78">
         <v>7.6</v>
+      </c>
+      <c r="O78" s="18">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
@@ -51376,11 +51689,11 @@
         <v>1</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>GB</v>
       </c>
       <c r="F79">
@@ -51412,6 +51725,10 @@
       </c>
       <c r="N79">
         <v>3.8</v>
+      </c>
+      <c r="O79" s="18">
+        <f t="shared" si="5"/>
+        <v>-8.1000000000000014</v>
       </c>
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
@@ -51435,11 +51752,11 @@
         <v>2</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SF</v>
       </c>
       <c r="F80">
@@ -51471,6 +51788,10 @@
       </c>
       <c r="N80">
         <v>1.1000000000000001</v>
+      </c>
+      <c r="O80" s="18">
+        <f t="shared" si="5"/>
+        <v>-12</v>
       </c>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
@@ -51494,11 +51815,11 @@
         <v>3</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Ten</v>
       </c>
       <c r="F81">
@@ -51530,6 +51851,10 @@
       </c>
       <c r="N81">
         <v>14.2</v>
+      </c>
+      <c r="O81" s="18">
+        <f t="shared" si="5"/>
+        <v>3.3999999999999986</v>
       </c>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
@@ -51553,11 +51878,11 @@
         <v>4</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Ind</v>
       </c>
       <c r="F82">
@@ -51589,6 +51914,10 @@
       </c>
       <c r="N82">
         <v>10.1</v>
+      </c>
+      <c r="O82" s="18">
+        <f t="shared" si="5"/>
+        <v>-1.3000000000000007</v>
       </c>
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
@@ -51612,11 +51941,11 @@
         <v>5</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>LAR</v>
       </c>
       <c r="F83">
@@ -51648,6 +51977,10 @@
       </c>
       <c r="N83">
         <v>15.7</v>
+      </c>
+      <c r="O83" s="18">
+        <f t="shared" si="5"/>
+        <v>5.0999999999999996</v>
       </c>
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
@@ -51671,11 +52004,11 @@
         <v>6</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BYE</v>
       </c>
       <c r="F84">
@@ -51707,6 +52040,10 @@
       </c>
       <c r="N84" t="s">
         <v>313</v>
+      </c>
+      <c r="O84" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
@@ -51730,11 +52067,11 @@
         <v>7</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NYG</v>
       </c>
       <c r="F85">
@@ -51766,6 +52103,10 @@
       </c>
       <c r="N85">
         <v>14.1</v>
+      </c>
+      <c r="O85" s="18">
+        <f t="shared" si="5"/>
+        <v>3.2999999999999989</v>
       </c>
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
@@ -51789,11 +52130,11 @@
         <v>8</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Hou</v>
       </c>
       <c r="F86">
@@ -51825,6 +52166,10 @@
       </c>
       <c r="N86">
         <v>19.899999999999999</v>
+      </c>
+      <c r="O86" s="18">
+        <f t="shared" si="5"/>
+        <v>8.4999999999999982</v>
       </c>
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
@@ -51848,11 +52193,11 @@
         <v>9</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Wsh</v>
       </c>
       <c r="F87">
@@ -51884,6 +52229,10 @@
       </c>
       <c r="N87">
         <v>10.9</v>
+      </c>
+      <c r="O87" s="18">
+        <f t="shared" si="5"/>
+        <v>-1.1999999999999993</v>
       </c>
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
@@ -51907,11 +52256,11 @@
         <v>10</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Ari</v>
       </c>
       <c r="F88">
@@ -51943,6 +52292,10 @@
       </c>
       <c r="N88">
         <v>20.7</v>
+      </c>
+      <c r="O88" s="18">
+        <f t="shared" si="5"/>
+        <v>8.1999999999999993</v>
       </c>
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
@@ -51966,11 +52319,11 @@
         <v>11</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Atl</v>
       </c>
       <c r="F89">
@@ -52002,6 +52355,10 @@
       </c>
       <c r="N89">
         <v>20.8</v>
+      </c>
+      <c r="O89" s="18">
+        <f t="shared" si="5"/>
+        <v>8.6000000000000014</v>
       </c>
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
@@ -52025,11 +52382,11 @@
         <v>12</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SF</v>
       </c>
       <c r="F90">
@@ -52061,6 +52418,10 @@
       </c>
       <c r="N90">
         <v>12.4</v>
+      </c>
+      <c r="O90" s="18">
+        <f t="shared" si="5"/>
+        <v>-0.69999999999999929</v>
       </c>
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
@@ -52084,11 +52445,11 @@
         <v>13</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Phi</v>
       </c>
       <c r="F91">
@@ -52120,6 +52481,10 @@
       </c>
       <c r="N91">
         <v>11.6</v>
+      </c>
+      <c r="O91" s="18">
+        <f t="shared" si="5"/>
+        <v>-1.5999999999999996</v>
       </c>
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
@@ -52143,11 +52508,11 @@
         <v>1</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Pit</v>
       </c>
       <c r="F92">
@@ -52179,6 +52544,10 @@
       </c>
       <c r="N92">
         <v>2.2999999999999998</v>
+      </c>
+      <c r="O92" s="18">
+        <f t="shared" si="5"/>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
@@ -52202,11 +52571,11 @@
         <v>2</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Bal</v>
       </c>
       <c r="F93">
@@ -52238,6 +52607,10 @@
       </c>
       <c r="N93">
         <v>1.2</v>
+      </c>
+      <c r="O93" s="18">
+        <f t="shared" si="5"/>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
@@ -52261,11 +52634,11 @@
         <v>3</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Ind</v>
       </c>
       <c r="F94">
@@ -52297,6 +52670,10 @@
       </c>
       <c r="N94">
         <v>14.4</v>
+      </c>
+      <c r="O94" s="18">
+        <f t="shared" si="5"/>
+        <v>5.0999999999999996</v>
       </c>
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
@@ -52320,11 +52697,11 @@
         <v>4</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Cin</v>
       </c>
       <c r="F95">
@@ -52356,6 +52733,10 @@
       </c>
       <c r="N95">
         <v>8.1999999999999993</v>
+      </c>
+      <c r="O95" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
@@ -52379,11 +52760,11 @@
         <v>5</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NYJ</v>
       </c>
       <c r="F96">
@@ -52414,6 +52795,10 @@
         <v>0</v>
       </c>
       <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96" s="18">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T96" s="2"/>
@@ -52438,11 +52823,11 @@
         <v>6</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Hou</v>
       </c>
       <c r="F97">
@@ -52473,6 +52858,10 @@
         <v>0</v>
       </c>
       <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97" s="18">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T97" s="2"/>
@@ -52497,11 +52886,11 @@
         <v>1</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NYJ</v>
       </c>
       <c r="F98">
@@ -52533,6 +52922,10 @@
       </c>
       <c r="N98">
         <v>20.9</v>
+      </c>
+      <c r="O98" s="18">
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
@@ -52556,11 +52949,11 @@
         <v>2</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Car</v>
       </c>
       <c r="F99">
@@ -52592,6 +52985,10 @@
       </c>
       <c r="N99">
         <v>10.3</v>
+      </c>
+      <c r="O99" s="18">
+        <f t="shared" si="5"/>
+        <v>-4.1999999999999993</v>
       </c>
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
@@ -52615,11 +53012,11 @@
         <v>3</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Den</v>
       </c>
       <c r="F100">
@@ -52651,6 +53048,10 @@
       </c>
       <c r="N100">
         <v>13.9</v>
+      </c>
+      <c r="O100" s="18">
+        <f t="shared" si="5"/>
+        <v>-3.0999999999999996</v>
       </c>
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
@@ -52674,11 +53075,11 @@
         <v>4</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Atl</v>
       </c>
       <c r="F101">
@@ -52710,6 +53111,10 @@
       </c>
       <c r="N101">
         <v>13.8</v>
+      </c>
+      <c r="O101" s="18">
+        <f t="shared" si="5"/>
+        <v>-5.8999999999999986</v>
       </c>
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
@@ -52733,11 +53138,11 @@
         <v>5</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Cin</v>
       </c>
       <c r="F102">
@@ -52769,6 +53174,10 @@
       </c>
       <c r="N102">
         <v>14.9</v>
+      </c>
+      <c r="O102" s="18">
+        <f t="shared" si="5"/>
+        <v>-4.2999999999999989</v>
       </c>
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
@@ -52792,11 +53201,11 @@
         <v>6</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BYE</v>
       </c>
       <c r="F103">
@@ -52828,6 +53237,10 @@
       </c>
       <c r="N103" t="s">
         <v>313</v>
+      </c>
+      <c r="O103" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
@@ -52851,11 +53264,11 @@
         <v>7</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TB</v>
       </c>
       <c r="F104">
@@ -52887,6 +53300,10 @@
       </c>
       <c r="N104">
         <v>27.2</v>
+      </c>
+      <c r="O104" s="18">
+        <f t="shared" si="5"/>
+        <v>6.3999999999999986</v>
       </c>
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
@@ -52910,11 +53327,11 @@
         <v>8</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Oak</v>
       </c>
       <c r="F105">
@@ -52946,6 +53363,10 @@
       </c>
       <c r="N105">
         <v>29.3</v>
+      </c>
+      <c r="O105" s="18">
+        <f t="shared" si="5"/>
+        <v>7.4000000000000021</v>
       </c>
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
@@ -52969,11 +53390,11 @@
         <v>9</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NYJ</v>
       </c>
       <c r="F106">
@@ -53005,6 +53426,10 @@
       </c>
       <c r="N106">
         <v>2.5</v>
+      </c>
+      <c r="O106" s="18">
+        <f t="shared" si="5"/>
+        <v>-19.399999999999999</v>
       </c>
       <c r="T106" s="2"/>
       <c r="U106" s="2"/>
@@ -53028,11 +53453,11 @@
         <v>10</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NO</v>
       </c>
       <c r="F107">
@@ -53064,6 +53489,10 @@
       </c>
       <c r="N107">
         <v>9</v>
+      </c>
+      <c r="O107" s="18">
+        <f t="shared" si="5"/>
+        <v>-12</v>
       </c>
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
@@ -53087,11 +53516,11 @@
         <v>11</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>LAC</v>
       </c>
       <c r="F108">
@@ -53123,6 +53552,10 @@
       </c>
       <c r="N108">
         <v>25.6</v>
+      </c>
+      <c r="O108" s="18">
+        <f t="shared" si="5"/>
+        <v>5.8000000000000007</v>
       </c>
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
@@ -53146,11 +53579,11 @@
         <v>12</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>KC</v>
       </c>
       <c r="F109">
@@ -53182,6 +53615,10 @@
       </c>
       <c r="N109">
         <v>11.9</v>
+      </c>
+      <c r="O109" s="18">
+        <f t="shared" si="5"/>
+        <v>-8.2000000000000011</v>
       </c>
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
@@ -53205,11 +53642,11 @@
         <v>13</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NE</v>
       </c>
       <c r="F110">
@@ -53241,6 +53678,10 @@
       </c>
       <c r="N110">
         <v>12.2</v>
+      </c>
+      <c r="O110" s="18">
+        <f t="shared" si="5"/>
+        <v>-6.5</v>
       </c>
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
@@ -53264,11 +53705,11 @@
         <v>1</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Sea</v>
       </c>
       <c r="F111">
@@ -53300,6 +53741,10 @@
       </c>
       <c r="N111">
         <v>7.3</v>
+      </c>
+      <c r="O111" s="18">
+        <f t="shared" si="5"/>
+        <v>-2.0000000000000009</v>
       </c>
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
@@ -53323,11 +53768,11 @@
         <v>2</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Atl</v>
       </c>
       <c r="F112">
@@ -53359,6 +53804,10 @@
       </c>
       <c r="N112">
         <v>9.6999999999999993</v>
+      </c>
+      <c r="O112" s="18">
+        <f t="shared" si="5"/>
+        <v>-1.1000000000000014</v>
       </c>
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
@@ -53382,11 +53831,11 @@
         <v>3</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Cin</v>
       </c>
       <c r="F113">
@@ -53418,6 +53867,10 @@
       </c>
       <c r="N113">
         <v>4.2</v>
+      </c>
+      <c r="O113" s="18">
+        <f t="shared" si="5"/>
+        <v>-5.1000000000000005</v>
       </c>
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
@@ -53441,11 +53894,11 @@
         <v>4</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E114" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Chi</v>
       </c>
       <c r="F114">
@@ -53477,6 +53930,10 @@
       </c>
       <c r="N114">
         <v>9.9</v>
+      </c>
+      <c r="O114" s="18">
+        <f t="shared" si="5"/>
+        <v>1.2000000000000011</v>
       </c>
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
@@ -53500,11 +53957,11 @@
         <v>5</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dal</v>
       </c>
       <c r="F115">
@@ -53536,6 +53993,10 @@
       </c>
       <c r="N115">
         <v>8.3000000000000007</v>
+      </c>
+      <c r="O115" s="18">
+        <f t="shared" si="5"/>
+        <v>-1.0999999999999996</v>
       </c>
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
@@ -53559,11 +54020,11 @@
         <v>6</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Min</v>
       </c>
       <c r="F116">
@@ -53595,6 +54056,10 @@
       </c>
       <c r="N116">
         <v>4.2</v>
+      </c>
+      <c r="O116" s="18">
+        <f t="shared" si="5"/>
+        <v>-4.3</v>
       </c>
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
@@ -53618,11 +54083,11 @@
         <v>7</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NO</v>
       </c>
       <c r="F117">
@@ -53654,6 +54119,10 @@
       </c>
       <c r="N117">
         <v>3.7</v>
+      </c>
+      <c r="O117" s="18">
+        <f t="shared" si="5"/>
+        <v>-3.8999999999999995</v>
       </c>
       <c r="T117" s="2"/>
       <c r="U117" s="2"/>
@@ -53677,11 +54146,11 @@
         <v>8</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BYE</v>
       </c>
       <c r="F118">
@@ -53713,6 +54182,10 @@
       </c>
       <c r="N118" t="s">
         <v>313</v>
+      </c>
+      <c r="O118" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="T118" s="2"/>
       <c r="U118" s="2"/>
@@ -53736,11 +54209,11 @@
         <v>9</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E119" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Det</v>
       </c>
       <c r="F119">
@@ -53771,6 +54244,10 @@
         <v>0</v>
       </c>
       <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119" s="18">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T119" s="2"/>
@@ -53795,11 +54272,11 @@
         <v>10</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E120" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Den</v>
       </c>
       <c r="F120">
@@ -53830,6 +54307,10 @@
         <v>0</v>
       </c>
       <c r="N120">
+        <v>6.8</v>
+      </c>
+      <c r="O120" s="18">
+        <f t="shared" si="5"/>
         <v>6.8</v>
       </c>
       <c r="T120" s="2"/>
@@ -53854,11 +54335,11 @@
         <v>11</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
       <c r="E121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Oak</v>
       </c>
       <c r="F121">
@@ -53890,6 +54371,10 @@
       </c>
       <c r="N121">
         <v>4.5</v>
+      </c>
+      <c r="O121" s="18">
+        <f t="shared" si="5"/>
+        <v>-1.5</v>
       </c>
       <c r="T121" s="2"/>
       <c r="U121" s="2"/>
@@ -53913,11 +54398,11 @@
         <v>12</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E122" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Mia</v>
       </c>
       <c r="F122">
@@ -53948,6 +54433,10 @@
         <v>0</v>
       </c>
       <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122" s="18">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T122" s="2"/>
@@ -53972,11 +54461,11 @@
         <v>1</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" ref="D123:D156" si="4">IF(LEFT($J123,1)="@","@","")</f>
+        <f t="shared" ref="D123:D156" si="6">IF(LEFT($J123,1)="@","@","")</f>
         <v/>
       </c>
       <c r="E123" t="str">
-        <f t="shared" ref="E123:E156" si="5">SUBSTITUTE($J123,"@","")</f>
+        <f t="shared" ref="E123:E156" si="7">SUBSTITUTE($J123,"@","")</f>
         <v>Ari</v>
       </c>
       <c r="F123">
@@ -54005,6 +54494,10 @@
       </c>
       <c r="N123">
         <v>27.1</v>
+      </c>
+      <c r="O123" s="18">
+        <f t="shared" si="5"/>
+        <v>8.5</v>
       </c>
       <c r="T123" s="2"/>
       <c r="U123" s="2"/>
@@ -54028,11 +54521,11 @@
         <v>2</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>@</v>
       </c>
       <c r="E124" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NYG</v>
       </c>
       <c r="F124">
@@ -54061,6 +54554,10 @@
       </c>
       <c r="N124">
         <v>13.2</v>
+      </c>
+      <c r="O124" s="18">
+        <f t="shared" si="5"/>
+        <v>-3.8000000000000007</v>
       </c>
       <c r="T124" s="2"/>
       <c r="U124" s="2"/>
@@ -54084,11 +54581,11 @@
         <v>3</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E125" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Atl</v>
       </c>
       <c r="F125">
@@ -54117,6 +54614,10 @@
       </c>
       <c r="N125">
         <v>16.5</v>
+      </c>
+      <c r="O125" s="18">
+        <f t="shared" si="5"/>
+        <v>-2.8000000000000007</v>
       </c>
       <c r="T125" s="2"/>
       <c r="U125" s="2"/>
@@ -54140,11 +54641,11 @@
         <v>4</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>@</v>
       </c>
       <c r="E126" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Min</v>
       </c>
       <c r="F126">
@@ -54173,6 +54674,10 @@
       </c>
       <c r="N126">
         <v>10.1</v>
+      </c>
+      <c r="O126" s="18">
+        <f t="shared" si="5"/>
+        <v>-5.8000000000000007</v>
       </c>
       <c r="T126" s="2"/>
       <c r="U126" s="2"/>
@@ -54196,11 +54701,11 @@
         <v>5</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E127" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Car</v>
       </c>
       <c r="F127">
@@ -54229,6 +54734,10 @@
       </c>
       <c r="N127">
         <v>15.2</v>
+      </c>
+      <c r="O127" s="18">
+        <f t="shared" si="5"/>
+        <v>-1.6000000000000014</v>
       </c>
       <c r="T127" s="2"/>
       <c r="U127" s="2"/>
@@ -54252,11 +54761,11 @@
         <v>6</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>@</v>
       </c>
       <c r="E128" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="F128">
@@ -54285,6 +54794,10 @@
       </c>
       <c r="N128">
         <v>14.9</v>
+      </c>
+      <c r="O128" s="18">
+        <f t="shared" si="5"/>
+        <v>-3.4000000000000004</v>
       </c>
       <c r="T128" s="2"/>
       <c r="U128" s="2"/>
@@ -54308,11 +54821,11 @@
         <v>7</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E129" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>BYE</v>
       </c>
       <c r="F129">
@@ -54341,6 +54854,10 @@
       </c>
       <c r="N129" t="s">
         <v>313</v>
+      </c>
+      <c r="O129" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="T129" s="2"/>
       <c r="U129" s="2"/>
@@ -54364,11 +54881,11 @@
         <v>8</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E130" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Pit</v>
       </c>
       <c r="F130">
@@ -54397,6 +54914,10 @@
       </c>
       <c r="N130">
         <v>18</v>
+      </c>
+      <c r="O130" s="18">
+        <f t="shared" si="5"/>
+        <v>1.3000000000000007</v>
       </c>
       <c r="T130" s="2"/>
       <c r="U130" s="2"/>
@@ -54420,11 +54941,11 @@
         <v>9</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>@</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>GB</v>
       </c>
       <c r="F131">
@@ -54453,6 +54974,10 @@
       </c>
       <c r="N131">
         <v>22.4</v>
+      </c>
+      <c r="O131" s="18">
+        <f t="shared" ref="O131:O171" si="8">IFERROR(N131-H131,0)</f>
+        <v>6.9999999999999982</v>
       </c>
       <c r="T131" s="2"/>
       <c r="U131" s="2"/>
@@ -54476,11 +55001,11 @@
         <v>10</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E132" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Cle</v>
       </c>
       <c r="F132">
@@ -54509,6 +55034,10 @@
       </c>
       <c r="N132">
         <v>21.7</v>
+      </c>
+      <c r="O132" s="18">
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="T132" s="2"/>
       <c r="U132" s="2"/>
@@ -54532,11 +55061,11 @@
         <v>11</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>@</v>
       </c>
       <c r="E133" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Chi</v>
       </c>
       <c r="F133">
@@ -54565,6 +55094,10 @@
       </c>
       <c r="N133">
         <v>18.3</v>
+      </c>
+      <c r="O133" s="18">
+        <f t="shared" si="8"/>
+        <v>3.2000000000000011</v>
       </c>
       <c r="T133" s="2"/>
       <c r="U133" s="2"/>
@@ -54588,11 +55121,11 @@
         <v>12</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E134" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Min</v>
       </c>
       <c r="F134">
@@ -54621,6 +55154,10 @@
       </c>
       <c r="N134">
         <v>14</v>
+      </c>
+      <c r="O134" s="18">
+        <f t="shared" si="8"/>
+        <v>-2.5</v>
       </c>
       <c r="T134" s="2"/>
       <c r="U134" s="2"/>
@@ -54644,11 +55181,11 @@
         <v>13</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>@</v>
       </c>
       <c r="E135" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Bal</v>
       </c>
       <c r="F135">
@@ -54677,6 +55214,10 @@
       </c>
       <c r="N135">
         <v>11.9</v>
+      </c>
+      <c r="O135" s="18">
+        <f t="shared" si="8"/>
+        <v>-2.5</v>
       </c>
       <c r="T135" s="2"/>
       <c r="U135" s="2"/>
@@ -54700,11 +55241,11 @@
         <v>13</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E136" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Wsh</v>
       </c>
       <c r="F136">
@@ -54736,6 +55277,10 @@
       </c>
       <c r="N136">
         <v>8.6999999999999993</v>
+      </c>
+      <c r="O136" s="18">
+        <f t="shared" si="8"/>
+        <v>-2</v>
       </c>
       <c r="T136" s="2"/>
       <c r="U136" s="2"/>
@@ -54759,11 +55304,11 @@
         <v>1</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>@</v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Dal</v>
       </c>
       <c r="F137">
@@ -54795,6 +55340,10 @@
       </c>
       <c r="N137">
         <v>14.1</v>
+      </c>
+      <c r="O137" s="18">
+        <f t="shared" si="8"/>
+        <v>4.5999999999999996</v>
       </c>
       <c r="T137" s="2"/>
       <c r="U137" s="2"/>
@@ -54818,11 +55367,11 @@
         <v>2</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E138" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Det</v>
       </c>
       <c r="F138">
@@ -54854,6 +55403,10 @@
       </c>
       <c r="N138">
         <v>8.5</v>
+      </c>
+      <c r="O138" s="18">
+        <f t="shared" si="8"/>
+        <v>-3</v>
       </c>
       <c r="T138" s="2"/>
       <c r="U138" s="2"/>
@@ -54877,11 +55430,11 @@
         <v>3</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>@</v>
       </c>
       <c r="E139" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Phi</v>
       </c>
       <c r="F139">
@@ -54913,6 +55466,10 @@
       </c>
       <c r="N139">
         <v>4.3</v>
+      </c>
+      <c r="O139" s="18">
+        <f t="shared" si="8"/>
+        <v>-4.2</v>
       </c>
       <c r="T139" s="2"/>
       <c r="U139" s="2"/>
@@ -54936,11 +55493,11 @@
         <v>1</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>@</v>
       </c>
       <c r="E140" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>LAR</v>
       </c>
       <c r="F140">
@@ -54972,6 +55529,10 @@
       </c>
       <c r="N140">
         <v>6.7</v>
+      </c>
+      <c r="O140" s="18">
+        <f t="shared" si="8"/>
+        <v>-7.7</v>
       </c>
       <c r="T140" s="2"/>
       <c r="U140" s="2"/>
@@ -54995,11 +55556,11 @@
         <v>2</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E141" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Ari</v>
       </c>
       <c r="F141">
@@ -55031,6 +55592,10 @@
       </c>
       <c r="N141">
         <v>8.9</v>
+      </c>
+      <c r="O141" s="18">
+        <f t="shared" si="8"/>
+        <v>-5</v>
       </c>
       <c r="T141" s="2"/>
       <c r="U141" s="2"/>
@@ -55054,11 +55619,11 @@
         <v>3</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Cle</v>
       </c>
       <c r="F142">
@@ -55090,6 +55655,10 @@
       </c>
       <c r="N142">
         <v>28.3</v>
+      </c>
+      <c r="O142" s="18">
+        <f t="shared" si="8"/>
+        <v>14.4</v>
       </c>
       <c r="T142" s="2"/>
       <c r="U142" s="2"/>
@@ -55113,11 +55682,11 @@
         <v>4</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>@</v>
       </c>
       <c r="E143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Sea</v>
       </c>
       <c r="F143">
@@ -55149,6 +55718,10 @@
       </c>
       <c r="N143">
         <v>6</v>
+      </c>
+      <c r="O143" s="18">
+        <f t="shared" si="8"/>
+        <v>-7.6999999999999993</v>
       </c>
       <c r="T143" s="2"/>
       <c r="U143" s="2"/>
@@ -55172,11 +55745,11 @@
         <v>5</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E144" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>SF</v>
       </c>
       <c r="F144">
@@ -55208,6 +55781,10 @@
       </c>
       <c r="N144">
         <v>24.7</v>
+      </c>
+      <c r="O144" s="18">
+        <f t="shared" si="8"/>
+        <v>11.2</v>
       </c>
       <c r="T144" s="2"/>
       <c r="U144" s="2"/>
@@ -55231,11 +55808,11 @@
         <v>6</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>@</v>
       </c>
       <c r="E145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Ten</v>
       </c>
       <c r="F145">
@@ -55267,6 +55844,10 @@
       </c>
       <c r="N145">
         <v>2.9</v>
+      </c>
+      <c r="O145" s="18">
+        <f t="shared" si="8"/>
+        <v>-11.4</v>
       </c>
       <c r="T145" s="2"/>
       <c r="U145" s="2"/>
@@ -55290,11 +55871,11 @@
         <v>7</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E146" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Jax</v>
       </c>
       <c r="F146">
@@ -55326,6 +55907,10 @@
       </c>
       <c r="N146">
         <v>4.7</v>
+      </c>
+      <c r="O146" s="18">
+        <f t="shared" si="8"/>
+        <v>-7.2</v>
       </c>
       <c r="T146" s="2"/>
       <c r="U146" s="2"/>
@@ -55349,11 +55934,11 @@
         <v>8</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>@</v>
       </c>
       <c r="E147" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Cin</v>
       </c>
       <c r="F147">
@@ -55385,6 +55970,10 @@
       </c>
       <c r="N147">
         <v>3.5</v>
+      </c>
+      <c r="O147" s="18">
+        <f t="shared" si="8"/>
+        <v>-7.6999999999999993</v>
       </c>
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
@@ -55408,11 +55997,11 @@
         <v>9</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>@</v>
       </c>
       <c r="E148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Hou</v>
       </c>
       <c r="F148">
@@ -55444,6 +56033,10 @@
       </c>
       <c r="N148">
         <v>34.5</v>
+      </c>
+      <c r="O148" s="18">
+        <f t="shared" si="8"/>
+        <v>24.6</v>
       </c>
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
@@ -55467,11 +56060,11 @@
         <v>10</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Pit</v>
       </c>
       <c r="F149">
@@ -55503,6 +56096,10 @@
       </c>
       <c r="N149">
         <v>4.3</v>
+      </c>
+      <c r="O149" s="18">
+        <f t="shared" si="8"/>
+        <v>-6.5000000000000009</v>
       </c>
       <c r="T149" s="2"/>
       <c r="U149" s="2"/>
@@ -55526,11 +56123,11 @@
         <v>11</v>
       </c>
       <c r="D150" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E150" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>BYE</v>
       </c>
       <c r="F150">
@@ -55562,6 +56159,10 @@
       </c>
       <c r="N150" t="s">
         <v>313</v>
+      </c>
+      <c r="O150" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="T150" s="2"/>
       <c r="U150" s="2"/>
@@ -55585,11 +56186,11 @@
         <v>12</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E151" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Ten</v>
       </c>
       <c r="F151">
@@ -55621,6 +56222,10 @@
       </c>
       <c r="N151">
         <v>3.5</v>
+      </c>
+      <c r="O151" s="18">
+        <f t="shared" si="8"/>
+        <v>-8.5</v>
       </c>
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
@@ -55644,11 +56249,11 @@
         <v>13</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>@</v>
       </c>
       <c r="E152" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Jax</v>
       </c>
       <c r="F152">
@@ -55680,6 +56285,10 @@
       </c>
       <c r="N152">
         <v>14.1</v>
+      </c>
+      <c r="O152" s="18">
+        <f t="shared" si="8"/>
+        <v>3.5999999999999996</v>
       </c>
       <c r="T152" s="2"/>
       <c r="U152" s="2"/>
@@ -55703,11 +56312,11 @@
         <v>7</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E153" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>TB</v>
       </c>
       <c r="F153">
@@ -55736,6 +56345,10 @@
       </c>
       <c r="N153">
         <v>20</v>
+      </c>
+      <c r="O153" s="18">
+        <f t="shared" si="8"/>
+        <v>2.6000000000000014</v>
       </c>
       <c r="T153" s="2"/>
       <c r="U153" s="2"/>
@@ -55759,11 +56372,11 @@
         <v>8</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E154" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Oak</v>
       </c>
       <c r="F154">
@@ -55792,6 +56405,10 @@
       </c>
       <c r="N154">
         <v>16.7</v>
+      </c>
+      <c r="O154" s="18">
+        <f t="shared" si="8"/>
+        <v>-0.80000000000000071</v>
       </c>
       <c r="T154" s="2"/>
       <c r="U154" s="2"/>
@@ -55815,11 +56432,11 @@
         <v>9</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>@</v>
       </c>
       <c r="E155" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NYJ</v>
       </c>
       <c r="F155">
@@ -55848,6 +56465,10 @@
       </c>
       <c r="N155">
         <v>26.9</v>
+      </c>
+      <c r="O155" s="18">
+        <f t="shared" si="8"/>
+        <v>9.8999999999999986</v>
       </c>
       <c r="T155" s="2"/>
       <c r="U155" s="2"/>
@@ -55871,11 +56492,11 @@
         <v>10</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E156" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="F156">
@@ -55904,6 +56525,10 @@
       </c>
       <c r="N156">
         <v>2.9</v>
+      </c>
+      <c r="O156" s="18">
+        <f t="shared" si="8"/>
+        <v>-14.4</v>
       </c>
       <c r="T156" s="2"/>
       <c r="U156" s="2"/>
@@ -55927,11 +56552,11 @@
         <v>11</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" ref="D157:D204" si="6">IF(LEFT($J157,1)="@","@","")</f>
+        <f t="shared" ref="D157:D204" si="9">IF(LEFT($J157,1)="@","@","")</f>
         <v>@</v>
       </c>
       <c r="E157" t="str">
-        <f t="shared" ref="E157:E204" si="7">SUBSTITUTE($J157,"@","")</f>
+        <f t="shared" ref="E157:E204" si="10">SUBSTITUTE($J157,"@","")</f>
         <v>LAC</v>
       </c>
       <c r="F157">
@@ -55960,6 +56585,10 @@
       </c>
       <c r="N157">
         <v>18.100000000000001</v>
+      </c>
+      <c r="O157" s="18">
+        <f t="shared" si="8"/>
+        <v>18</v>
       </c>
       <c r="T157" s="2"/>
       <c r="U157" s="2"/>
@@ -55983,11 +56612,11 @@
         <v>13</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>@</v>
       </c>
       <c r="E158" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>KC</v>
       </c>
       <c r="F158">
@@ -56016,6 +56645,10 @@
       </c>
       <c r="N158">
         <v>14</v>
+      </c>
+      <c r="O158" s="18">
+        <f t="shared" si="8"/>
+        <v>-3.8999999999999986</v>
       </c>
       <c r="T158" s="2"/>
       <c r="U158" s="2"/>
@@ -56039,11 +56672,11 @@
         <v>1</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>@</v>
       </c>
       <c r="E159" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Wsh</v>
       </c>
       <c r="F159">
@@ -56075,6 +56708,10 @@
       </c>
       <c r="N159">
         <v>17.3</v>
+      </c>
+      <c r="O159" s="18">
+        <f t="shared" si="8"/>
+        <v>6.2000000000000011</v>
       </c>
       <c r="T159" s="2"/>
       <c r="U159" s="2"/>
@@ -56098,11 +56735,11 @@
         <v>2</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>@</v>
       </c>
       <c r="E160" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>KC</v>
       </c>
       <c r="F160">
@@ -56134,6 +56771,10 @@
       </c>
       <c r="N160">
         <v>14.7</v>
+      </c>
+      <c r="O160" s="18">
+        <f t="shared" si="8"/>
+        <v>1.8999999999999986</v>
       </c>
       <c r="T160" s="2"/>
       <c r="U160" s="2"/>
@@ -56157,11 +56798,11 @@
         <v>3</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E161" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>NYG</v>
       </c>
       <c r="F161">
@@ -56193,6 +56834,10 @@
       </c>
       <c r="N161">
         <v>17.5</v>
+      </c>
+      <c r="O161" s="18">
+        <f t="shared" si="8"/>
+        <v>4.8000000000000007</v>
       </c>
       <c r="T161" s="2"/>
       <c r="U161" s="2"/>
@@ -56216,11 +56861,11 @@
         <v>4</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>@</v>
       </c>
       <c r="E162" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>LAC</v>
       </c>
       <c r="F162">
@@ -56252,6 +56897,10 @@
       </c>
       <c r="N162">
         <v>13.1</v>
+      </c>
+      <c r="O162" s="18">
+        <f t="shared" si="8"/>
+        <v>-1.5</v>
       </c>
       <c r="T162" s="2"/>
       <c r="U162" s="2"/>
@@ -56275,11 +56924,11 @@
         <v>5</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E163" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Ari</v>
       </c>
       <c r="F163">
@@ -56311,6 +56960,10 @@
       </c>
       <c r="N163">
         <v>18.100000000000001</v>
+      </c>
+      <c r="O163" s="18">
+        <f t="shared" si="8"/>
+        <v>2.5000000000000018</v>
       </c>
       <c r="T163" s="2"/>
       <c r="U163" s="2"/>
@@ -56334,11 +56987,11 @@
         <v>6</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>@</v>
       </c>
       <c r="E164" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Car</v>
       </c>
       <c r="F164">
@@ -56370,6 +57023,10 @@
       </c>
       <c r="N164">
         <v>15.8</v>
+      </c>
+      <c r="O164" s="18">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
       </c>
       <c r="T164" s="2"/>
       <c r="U164" s="2"/>
@@ -56393,11 +57050,11 @@
         <v>7</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E165" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Wsh</v>
       </c>
       <c r="F165">
@@ -56429,6 +57086,10 @@
       </c>
       <c r="N165">
         <v>19.899999999999999</v>
+      </c>
+      <c r="O165" s="18">
+        <f t="shared" si="8"/>
+        <v>3.7999999999999972</v>
       </c>
       <c r="T165" s="2"/>
       <c r="U165" s="2"/>
@@ -56452,11 +57113,11 @@
         <v>8</v>
       </c>
       <c r="D166" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E166" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>SF</v>
       </c>
       <c r="F166">
@@ -56488,6 +57149,10 @@
       </c>
       <c r="N166">
         <v>13.4</v>
+      </c>
+      <c r="O166" s="18">
+        <f t="shared" si="8"/>
+        <v>-2</v>
       </c>
       <c r="T166" s="2"/>
       <c r="U166" s="2"/>
@@ -56511,11 +57176,11 @@
         <v>9</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E167" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Den</v>
       </c>
       <c r="F167">
@@ -56546,6 +57211,10 @@
         <v>0</v>
       </c>
       <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167" s="18">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T167" s="2"/>
@@ -56570,11 +57239,11 @@
         <v>10</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E168" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>BYE</v>
       </c>
       <c r="F168">
@@ -56606,6 +57275,10 @@
       </c>
       <c r="N168" t="s">
         <v>313</v>
+      </c>
+      <c r="O168" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="T168" s="2"/>
       <c r="U168" s="2"/>
@@ -56629,11 +57302,11 @@
         <v>11</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>@</v>
       </c>
       <c r="E169" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Dal</v>
       </c>
       <c r="F169">
@@ -56665,6 +57338,10 @@
       </c>
       <c r="N169">
         <v>2.8</v>
+      </c>
+      <c r="O169" s="18">
+        <f t="shared" si="8"/>
+        <v>-14.099999999999998</v>
       </c>
       <c r="T169" s="2"/>
       <c r="U169" s="2"/>
@@ -56688,11 +57365,11 @@
         <v>12</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E170" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Chi</v>
       </c>
       <c r="F170">
@@ -56724,6 +57401,10 @@
       </c>
       <c r="N170">
         <v>26.3</v>
+      </c>
+      <c r="O170" s="18">
+        <f t="shared" si="8"/>
+        <v>12.4</v>
       </c>
       <c r="T170" s="2"/>
       <c r="U170" s="2"/>
@@ -56747,11 +57428,11 @@
         <v>13</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>@</v>
       </c>
       <c r="E171" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Sea</v>
       </c>
       <c r="F171">
@@ -56783,6 +57464,10 @@
       </c>
       <c r="N171">
         <v>4.4000000000000004</v>
+      </c>
+      <c r="O171" s="18">
+        <f t="shared" si="8"/>
+        <v>-10</v>
       </c>
       <c r="T171" s="2"/>
       <c r="U171" s="2"/>
@@ -56806,11 +57491,11 @@
         <v>13</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E172" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F172">
@@ -56847,11 +57532,11 @@
         <v>13</v>
       </c>
       <c r="D173" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E173" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F173">
@@ -56888,11 +57573,11 @@
         <v>13</v>
       </c>
       <c r="D174" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E174" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F174">
@@ -56929,11 +57614,11 @@
         <v>13</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E175" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F175">
@@ -56970,11 +57655,11 @@
         <v>13</v>
       </c>
       <c r="D176" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E176" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F176">
@@ -57011,11 +57696,11 @@
         <v>13</v>
       </c>
       <c r="D177" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E177" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F177">
@@ -57052,11 +57737,11 @@
         <v>13</v>
       </c>
       <c r="D178" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E178" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F178">
@@ -57093,11 +57778,11 @@
         <v>13</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E179" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F179">
@@ -57134,11 +57819,11 @@
         <v>12</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E180" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F180">
@@ -57175,11 +57860,11 @@
         <v>12</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E181" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F181">
@@ -57216,11 +57901,11 @@
         <v>12</v>
       </c>
       <c r="D182" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E182" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F182">
@@ -57257,11 +57942,11 @@
         <v>12</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E183" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F183">
@@ -57298,11 +57983,11 @@
         <v>12</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E184" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F184">
@@ -57339,11 +58024,11 @@
         <v>12</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E185" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F185">
@@ -57380,11 +58065,11 @@
         <v>12</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E186" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F186">
@@ -57421,11 +58106,11 @@
         <v>12</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E187" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F187">
@@ -57462,11 +58147,11 @@
         <v>11</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E188" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F188">
@@ -57503,11 +58188,11 @@
         <v>11</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E189" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F189">
@@ -57544,11 +58229,11 @@
         <v>11</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E190" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F190">
@@ -57585,11 +58270,11 @@
         <v>11</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E191" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F191">
@@ -57626,11 +58311,11 @@
         <v>11</v>
       </c>
       <c r="D192" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E192" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F192">
@@ -57667,11 +58352,11 @@
         <v>11</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E193" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F193">
@@ -57708,11 +58393,11 @@
         <v>11</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E194" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F194">
@@ -57749,11 +58434,11 @@
         <v>11</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E195" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F195">
@@ -57790,11 +58475,11 @@
         <v>10</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E196" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F196">
@@ -57831,11 +58516,11 @@
         <v>10</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E197" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F197">
@@ -57872,11 +58557,11 @@
         <v>10</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E198" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F198">
@@ -57913,11 +58598,11 @@
         <v>10</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E199" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F199">
@@ -57954,11 +58639,11 @@
         <v>10</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E200" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F200">
@@ -57995,11 +58680,11 @@
         <v>10</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E201" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F201">
@@ -58036,11 +58721,11 @@
         <v>10</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E202" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F202">
@@ -58077,11 +58762,11 @@
         <v>10</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E203" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F203">
@@ -58118,11 +58803,11 @@
         <v>9</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E204" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F204">
@@ -58159,11 +58844,11 @@
         <v>9</v>
       </c>
       <c r="D205" t="str">
-        <f t="shared" ref="D205:D249" si="8">IF(LEFT($J205,1)="@","@","")</f>
+        <f t="shared" ref="D205:D249" si="11">IF(LEFT($J205,1)="@","@","")</f>
         <v/>
       </c>
       <c r="E205" t="str">
-        <f t="shared" ref="E205:E249" si="9">SUBSTITUTE($J205,"@","")</f>
+        <f t="shared" ref="E205:E249" si="12">SUBSTITUTE($J205,"@","")</f>
         <v/>
       </c>
       <c r="F205">
@@ -58200,11 +58885,11 @@
         <v>9</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E206" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F206">
@@ -58241,11 +58926,11 @@
         <v>9</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E207" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F207">
@@ -58282,11 +58967,11 @@
         <v>9</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E208" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F208">
@@ -58323,11 +59008,11 @@
         <v>9</v>
       </c>
       <c r="D209" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E209" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F209">
@@ -58364,11 +59049,11 @@
         <v>9</v>
       </c>
       <c r="D210" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E210" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F210">
@@ -58405,11 +59090,11 @@
         <v>9</v>
       </c>
       <c r="D211" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E211" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F211">
@@ -58446,11 +59131,11 @@
         <v>8</v>
       </c>
       <c r="D212" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E212" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F212">
@@ -58487,11 +59172,11 @@
         <v>8</v>
       </c>
       <c r="D213" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E213" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F213">
@@ -58528,11 +59213,11 @@
         <v>8</v>
       </c>
       <c r="D214" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E214" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F214">
@@ -58569,11 +59254,11 @@
         <v>8</v>
       </c>
       <c r="D215" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E215" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F215">
@@ -58610,11 +59295,11 @@
         <v>8</v>
       </c>
       <c r="D216" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E216" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F216">
@@ -58651,11 +59336,11 @@
         <v>8</v>
       </c>
       <c r="D217" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E217" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F217">
@@ -58692,11 +59377,11 @@
         <v>8</v>
       </c>
       <c r="D218" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E218" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F218">
@@ -58733,11 +59418,11 @@
         <v>8</v>
       </c>
       <c r="D219" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E219" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F219">
@@ -58774,11 +59459,11 @@
         <v>8</v>
       </c>
       <c r="D220" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E220" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F220">
@@ -58815,11 +59500,11 @@
         <v>7</v>
       </c>
       <c r="D221" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E221" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F221">
@@ -58856,11 +59541,11 @@
         <v>7</v>
       </c>
       <c r="D222" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E222" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F222">
@@ -58897,11 +59582,11 @@
         <v>7</v>
       </c>
       <c r="D223" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E223" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F223">
@@ -58938,11 +59623,11 @@
         <v>7</v>
       </c>
       <c r="D224" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E224" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F224">
@@ -58979,11 +59664,11 @@
         <v>7</v>
       </c>
       <c r="D225" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E225" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F225">
@@ -59020,11 +59705,11 @@
         <v>7</v>
       </c>
       <c r="D226" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E226" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F226">
@@ -59061,11 +59746,11 @@
         <v>7</v>
       </c>
       <c r="D227" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E227" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F227">
@@ -59102,11 +59787,11 @@
         <v>7</v>
       </c>
       <c r="D228" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E228" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F228">
@@ -59143,11 +59828,11 @@
         <v>7</v>
       </c>
       <c r="D229" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E229" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F229">
@@ -59184,11 +59869,11 @@
         <v>6</v>
       </c>
       <c r="D230" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E230" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F230">
@@ -59225,11 +59910,11 @@
         <v>6</v>
       </c>
       <c r="D231" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E231" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F231">
@@ -59266,11 +59951,11 @@
         <v>6</v>
       </c>
       <c r="D232" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E232" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F232">
@@ -59307,11 +59992,11 @@
         <v>6</v>
       </c>
       <c r="D233" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E233" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F233">
@@ -59348,11 +60033,11 @@
         <v>6</v>
       </c>
       <c r="D234" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E234" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F234">
@@ -59389,11 +60074,11 @@
         <v>6</v>
       </c>
       <c r="D235" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E235" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F235">
@@ -59430,11 +60115,11 @@
         <v>6</v>
       </c>
       <c r="D236" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E236" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F236">
@@ -59471,11 +60156,11 @@
         <v>6</v>
       </c>
       <c r="D237" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E237" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F237">
@@ -59512,11 +60197,11 @@
         <v>5</v>
       </c>
       <c r="D238" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E238" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F238">
@@ -59553,11 +60238,11 @@
         <v>5</v>
       </c>
       <c r="D239" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E239" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F239">
@@ -59594,11 +60279,11 @@
         <v>5</v>
       </c>
       <c r="D240" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E240" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F240">
@@ -59635,11 +60320,11 @@
         <v>5</v>
       </c>
       <c r="D241" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E241" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F241">
@@ -59676,11 +60361,11 @@
         <v>5</v>
       </c>
       <c r="D242" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E242" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F242">
@@ -59717,11 +60402,11 @@
         <v>5</v>
       </c>
       <c r="D243" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E243" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F243">
@@ -59758,11 +60443,11 @@
         <v>5</v>
       </c>
       <c r="D244" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E244" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F244">
@@ -59799,11 +60484,11 @@
         <v>5</v>
       </c>
       <c r="D245" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E245" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F245">
@@ -59840,11 +60525,11 @@
         <v>4</v>
       </c>
       <c r="D246" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E246" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F246">
@@ -59881,11 +60566,11 @@
         <v>4</v>
       </c>
       <c r="D247" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E247" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F247">
@@ -59922,11 +60607,11 @@
         <v>4</v>
       </c>
       <c r="D248" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E248" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F248">
@@ -59963,11 +60648,11 @@
         <v>4</v>
       </c>
       <c r="D249" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E249" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F249">
@@ -60004,11 +60689,11 @@
         <v>4</v>
       </c>
       <c r="D250" t="str">
-        <f t="shared" ref="D250:D274" si="10">IF(LEFT($J250,1)="@","@","")</f>
+        <f t="shared" ref="D250:D274" si="13">IF(LEFT($J250,1)="@","@","")</f>
         <v/>
       </c>
       <c r="E250" t="str">
-        <f t="shared" ref="E250:E274" si="11">SUBSTITUTE($J250,"@","")</f>
+        <f t="shared" ref="E250:E274" si="14">SUBSTITUTE($J250,"@","")</f>
         <v/>
       </c>
       <c r="F250">
@@ -60045,11 +60730,11 @@
         <v>4</v>
       </c>
       <c r="D251" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E251" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F251">
@@ -60086,11 +60771,11 @@
         <v>4</v>
       </c>
       <c r="D252" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E252" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F252">
@@ -60127,11 +60812,11 @@
         <v>4</v>
       </c>
       <c r="D253" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E253" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F253">
@@ -60168,11 +60853,11 @@
         <v>3</v>
       </c>
       <c r="D254" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E254" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F254">
@@ -60209,11 +60894,11 @@
         <v>3</v>
       </c>
       <c r="D255" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E255" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F255">
@@ -60250,11 +60935,11 @@
         <v>3</v>
       </c>
       <c r="D256" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E256" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F256">
@@ -60291,11 +60976,11 @@
         <v>3</v>
       </c>
       <c r="D257" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E257" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F257">
@@ -60332,11 +61017,11 @@
         <v>3</v>
       </c>
       <c r="D258" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E258" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F258">
@@ -60373,11 +61058,11 @@
         <v>3</v>
       </c>
       <c r="D259" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E259" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F259">
@@ -60414,11 +61099,11 @@
         <v>3</v>
       </c>
       <c r="D260" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E260" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F260">
@@ -60455,11 +61140,11 @@
         <v>2</v>
       </c>
       <c r="D261" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E261" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F261">
@@ -60496,11 +61181,11 @@
         <v>2</v>
       </c>
       <c r="D262" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E262" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F262">
@@ -60537,11 +61222,11 @@
         <v>2</v>
       </c>
       <c r="D263" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E263" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F263">
@@ -60578,11 +61263,11 @@
         <v>2</v>
       </c>
       <c r="D264" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E264" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F264">
@@ -60619,11 +61304,11 @@
         <v>2</v>
       </c>
       <c r="D265" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E265" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F265">
@@ -60660,11 +61345,11 @@
         <v>2</v>
       </c>
       <c r="D266" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E266" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F266">
@@ -60701,11 +61386,11 @@
         <v>2</v>
       </c>
       <c r="D267" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E267" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F267">
@@ -60742,11 +61427,11 @@
         <v>1</v>
       </c>
       <c r="D268" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E268" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F268">
@@ -60783,11 +61468,11 @@
         <v>1</v>
       </c>
       <c r="D269" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E269" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F269">
@@ -60824,11 +61509,11 @@
         <v>1</v>
       </c>
       <c r="D270" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E270" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F270">
@@ -60865,11 +61550,11 @@
         <v>1</v>
       </c>
       <c r="D271" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E271" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F271">
@@ -60906,11 +61591,11 @@
         <v>1</v>
       </c>
       <c r="D272" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E272" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F272">
@@ -60947,11 +61632,11 @@
         <v>1</v>
       </c>
       <c r="D273" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E273" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F273">
@@ -60988,11 +61673,11 @@
         <v>1</v>
       </c>
       <c r="D274" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E274" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F274">
